--- a/ES_Transportation_Order_Tracker.xlsx
+++ b/ES_Transportation_Order_Tracker.xlsx
@@ -570,6 +570,17 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation sqref="D2:D500" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Rush,Standard,Next Day"</formula1>
+    </dataValidation>
+    <dataValidation sqref="G2:G500" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation sqref="T2:T500" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Unpaid,Paid"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>